--- a/Flight_Data_Driven_loop/Default.xlsx
+++ b/Flight_Data_Driven_loop/Default.xlsx
@@ -233,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -546,11 +546,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,53 +566,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="12.01171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.30078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.01171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.30078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1">
-      <c t="s">
+    <row r="1" customFormat="1">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row>
-      <c s="1" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row>
-      <c s="1" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row>
-      <c s="1" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
